--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_262.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_262.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['D', 'D/b7', 'G/3']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(39.18, 53.36)]</t>
+          <t>[['E', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[('0:00:32.879478', '0:00:37.291269')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:02:02.976598', '0:02:10.383764')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_27</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.03586956521739131</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_70</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1778846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
+          <t>[['A', 'B:min', 'E'], ['E', 'A', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.18, 20.54)]</t>
+          <t>[['C', 'D:min', 'G'], ['G', 'C', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(35.155014, 49.662244)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:07.947596', '0:00:23.400476'), ('0:01:23.215079', '0:01:40.885464')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:18.910000', '0:01:23.012000'), ('0:00:12.880000', '0:00:18.522000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1734375</v>
-      </c>
-      <c r="D4" t="inlineStr">
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2548262548262548</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>[['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[['C', 'G:7', 'C']]</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(21.17, 23.45)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2002224694104561</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:dim7', 'Ab', 'F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.109375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab/5', 'F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.16, 23.23)]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(21.98, 25.87)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:09.280000', '0:00:11.240000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1018141429100333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>isophonics_33</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1176633444075305</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['C', 'G', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(33.48, 45.59)]</t>
+          <t>[['E', 'B', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(35.66, 40.88)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.446041', '0:00:05.805011')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:17.106498', '0:00:27.067858')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(53.96, 60.18)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.58, 8.96), (9.54, 11.42)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(79.98, 87.7), (0.78, 24.04)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:14.120000', '0:01:26.540000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08233082706766917</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G'], ['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3'], ['G/3', 'G', 'C']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(4.155032, 7.525011), (9.231677, 12.668231)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004), (5.894331, 9.748843)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1263586956521739</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.527, 17.058)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(86.923922, 92.322562)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(25.22, 27.17)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07616487455197132</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.088054, 5.756807)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(19.731723, 23.783605)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_209</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'B:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.968639, 43.926916)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(48.829886, 56.364761)]</t>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07179054054054054</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.829138, 15.586961)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_76</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07023809523809524</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:sus4', 'F#', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:(1,5,9)', 'C', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(31.005011, 35.323922)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(118.453, 123.653)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
